--- a/config/layout/screen2Elements.xlsx
+++ b/config/layout/screen2Elements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Python\FinanceManager\config\layout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9583EAD-63D7-4BD2-B27E-223053C35A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC635E57-24E9-45D1-B489-7FB73EF73367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Buttons" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -43,12 +43,6 @@
     <t>labelType</t>
   </si>
   <si>
-    <t>height</t>
-  </si>
-  <si>
-    <t>width</t>
-  </si>
-  <si>
     <t>textBoxType</t>
   </si>
   <si>
@@ -85,9 +79,6 @@
     <t>columnStart</t>
   </si>
   <si>
-    <t>c9olumnEnd</t>
-  </si>
-  <si>
     <t>placement</t>
   </si>
   <si>
@@ -100,9 +91,6 @@
     <t>lbSelectYearAddInvestments</t>
   </si>
   <si>
-    <t>Select Year :</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
@@ -163,13 +151,40 @@
     <t>lbSelectDate</t>
   </si>
   <si>
-    <t>Select Month :</t>
-  </si>
-  <si>
-    <t>Select Date :</t>
-  </si>
-  <si>
     <t>tbSelectdate</t>
+  </si>
+  <si>
+    <t>btCash2</t>
+  </si>
+  <si>
+    <t>btLiabilities2</t>
+  </si>
+  <si>
+    <t>columnEnd</t>
+  </si>
+  <si>
+    <t>c0olumnEnd</t>
+  </si>
+  <si>
+    <t>Add Cash</t>
+  </si>
+  <si>
+    <t>Add Liabilities</t>
+  </si>
+  <si>
+    <t>btInvestments2</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>Month:</t>
+  </si>
+  <si>
+    <t>Year:</t>
+  </si>
+  <si>
+    <t>W</t>
   </si>
 </sst>
 </file>
@@ -218,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -229,11 +244,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -541,10 +552,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -567,19 +578,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="I1" t="s">
         <v>3</v>
@@ -589,14 +600,92 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="2">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2">
+        <v>100</v>
+      </c>
+      <c r="D2" s="2">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2">
+        <v>3</v>
+      </c>
       <c r="H2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="1">
+        <v>100</v>
+      </c>
+      <c r="C3" s="1">
+        <v>100</v>
+      </c>
+      <c r="D3" s="1">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="1">
+        <v>100</v>
+      </c>
+      <c r="C4" s="1">
+        <v>100</v>
+      </c>
+      <c r="D4" s="1">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1">
+        <v>6</v>
+      </c>
+      <c r="G4" s="1">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -608,7 +697,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -627,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="I1" t="s">
         <v>3</v>
@@ -650,7 +739,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2">
         <v>600</v>
@@ -672,7 +761,7 @@
       </c>
       <c r="H2" s="2"/>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J2" s="2">
         <v>1</v>
@@ -680,7 +769,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1">
         <v>100</v>
@@ -701,10 +790,10 @@
         <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="J3" s="1">
         <v>3</v>
@@ -712,7 +801,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -733,10 +822,10 @@
         <v>6</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -744,7 +833,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1">
         <v>100</v>
@@ -765,10 +854,10 @@
         <v>10</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J5" s="1">
         <v>3</v>
@@ -776,7 +865,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1">
         <v>100</v>
@@ -797,10 +886,10 @@
         <v>9</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J6" s="1">
         <v>3</v>
@@ -808,7 +897,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1">
         <v>100</v>
@@ -829,10 +918,10 @@
         <v>9</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" t="s">
         <v>26</v>
-      </c>
-      <c r="I7" t="s">
-        <v>30</v>
       </c>
       <c r="J7" s="1">
         <v>3</v>
@@ -840,7 +929,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B8" s="1">
         <v>100</v>
@@ -861,10 +950,10 @@
         <v>9</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J8" s="1">
         <v>3</v>
@@ -872,7 +961,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B9" s="1">
         <v>100</v>
@@ -893,10 +982,10 @@
         <v>9</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="J9" s="1">
         <v>3</v>
@@ -904,7 +993,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1">
         <v>100</v>
@@ -925,10 +1014,10 @@
         <v>9</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J10" s="1">
         <v>3</v>
@@ -968,15 +1057,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECADEA84-B601-42D8-8290-2F9929C49681}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -987,33 +1076,27 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1">
         <v>100</v>
@@ -1034,21 +1117,15 @@
         <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="I2" s="4">
-        <v>30</v>
-      </c>
-      <c r="J2" s="4">
-        <v>60</v>
-      </c>
-      <c r="K2" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -1068,22 +1145,16 @@
       <c r="G3" s="1">
         <v>8</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>26</v>
+      <c r="H3" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="I3" s="4">
-        <v>30</v>
-      </c>
-      <c r="J3" s="4">
-        <v>60</v>
-      </c>
-      <c r="K3" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -1103,22 +1174,16 @@
       <c r="G4" s="1">
         <v>12</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>26</v>
+      <c r="H4" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="I4" s="4">
-        <v>30</v>
-      </c>
-      <c r="J4" s="4">
-        <v>60</v>
-      </c>
-      <c r="K4" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B5" s="1">
         <v>100</v>
@@ -1139,21 +1204,15 @@
         <v>11</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="6">
-        <v>30</v>
-      </c>
-      <c r="J5" s="6">
-        <v>80</v>
-      </c>
-      <c r="K5" s="5">
+        <v>53</v>
+      </c>
+      <c r="I5" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B6" s="1">
         <v>100</v>
@@ -1174,21 +1233,15 @@
         <v>11</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="6">
-        <v>30</v>
-      </c>
-      <c r="J6" s="6">
-        <v>80</v>
-      </c>
-      <c r="K6" s="5">
+        <v>53</v>
+      </c>
+      <c r="I6" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B7" s="1">
         <v>100</v>
@@ -1209,21 +1262,15 @@
         <v>11</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="6">
-        <v>30</v>
-      </c>
-      <c r="J7" s="6">
-        <v>80</v>
-      </c>
-      <c r="K7" s="5">
+        <v>53</v>
+      </c>
+      <c r="I7" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B8" s="1">
         <v>100</v>
@@ -1244,21 +1291,15 @@
         <v>11</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="6">
-        <v>30</v>
-      </c>
-      <c r="J8" s="6">
-        <v>80</v>
-      </c>
-      <c r="K8" s="5">
+        <v>53</v>
+      </c>
+      <c r="I8" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B9" s="1">
         <v>100</v>
@@ -1279,15 +1320,9 @@
         <v>11</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="6">
-        <v>30</v>
-      </c>
-      <c r="J9" s="6">
-        <v>80</v>
-      </c>
-      <c r="K9" s="5">
+        <v>53</v>
+      </c>
+      <c r="I9" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1308,23 +1343,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>15</v>
@@ -1332,7 +1367,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>18</v>
@@ -1340,10 +1375,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/config/layout/screen2Elements.xlsx
+++ b/config/layout/screen2Elements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Python\FinanceManager\config\layout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC635E57-24E9-45D1-B489-7FB73EF73367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E315F099-566A-470B-A72F-88E517AA4790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="58">
   <si>
     <t>id</t>
   </si>
@@ -82,78 +82,27 @@
     <t>placement</t>
   </si>
   <si>
-    <t>lbAddInvestments</t>
-  </si>
-  <si>
     <t>Add Investments</t>
   </si>
   <si>
-    <t>lbSelectYearAddInvestments</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
-    <t>lbSelectMonthAddINvestments</t>
-  </si>
-  <si>
-    <t>lbFixedDeposits</t>
-  </si>
-  <si>
-    <t>lbMutualFunds</t>
-  </si>
-  <si>
     <t>Mutual Funds</t>
   </si>
   <si>
     <t>Fixed Deposits</t>
   </si>
   <si>
-    <t>lbStocks</t>
-  </si>
-  <si>
     <t>Stocks</t>
   </si>
   <si>
-    <t>lbPF</t>
-  </si>
-  <si>
     <t>PF</t>
   </si>
   <si>
-    <t>lbCrypto</t>
-  </si>
-  <si>
     <t>Crypto-Currency</t>
   </si>
   <si>
-    <t>tbSelectYearAddInvestments</t>
-  </si>
-  <si>
-    <t>tbSelectMonthAddINvestments</t>
-  </si>
-  <si>
-    <t>tbFixedDeposits</t>
-  </si>
-  <si>
-    <t>tbMutualFunds</t>
-  </si>
-  <si>
-    <t>tbStocks</t>
-  </si>
-  <si>
-    <t>tbPF</t>
-  </si>
-  <si>
-    <t>tbCrypto</t>
-  </si>
-  <si>
-    <t>lbSelectDate</t>
-  </si>
-  <si>
-    <t>tbSelectdate</t>
-  </si>
-  <si>
     <t>btCash2</t>
   </si>
   <si>
@@ -185,6 +134,69 @@
   </si>
   <si>
     <t>W</t>
+  </si>
+  <si>
+    <t>lbAddInvestments2</t>
+  </si>
+  <si>
+    <t>lbSelectYearAddInvestments2</t>
+  </si>
+  <si>
+    <t>lbSelectMonthAddINvestments2</t>
+  </si>
+  <si>
+    <t>lbSelectDate2</t>
+  </si>
+  <si>
+    <t>lbFixedDeposits2</t>
+  </si>
+  <si>
+    <t>lbMutualFunds2</t>
+  </si>
+  <si>
+    <t>lbStocks2</t>
+  </si>
+  <si>
+    <t>lbPF2</t>
+  </si>
+  <si>
+    <t>lbCrypto2</t>
+  </si>
+  <si>
+    <t>tbSelectYearAddInvestments2</t>
+  </si>
+  <si>
+    <t>tbSelectMonthAddINvestments2</t>
+  </si>
+  <si>
+    <t>tbSelectdate2</t>
+  </si>
+  <si>
+    <t>tbFixedDeposits2</t>
+  </si>
+  <si>
+    <t>tbMutualFunds2</t>
+  </si>
+  <si>
+    <t>tbStocks2</t>
+  </si>
+  <si>
+    <t>tbPF2</t>
+  </si>
+  <si>
+    <t>tbCrypto2</t>
+  </si>
+  <si>
+    <t>Add field</t>
+  </si>
+  <si>
+    <t>btAddField2</t>
+  </si>
+  <si>
+    <t>ScrollBar</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -552,10 +564,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -587,7 +599,7 @@
         <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>18</v>
@@ -601,7 +613,7 @@
     </row>
     <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2">
         <v>100</v>
@@ -623,7 +635,7 @@
       </c>
       <c r="H2" s="2"/>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J2" s="2">
         <v>2</v>
@@ -631,7 +643,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1">
         <v>100</v>
@@ -652,7 +664,7 @@
         <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -660,7 +672,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1">
         <v>100</v>
@@ -681,9 +693,38 @@
         <v>7</v>
       </c>
       <c r="I4" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="J4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="1">
+        <v>100</v>
+      </c>
+      <c r="C5" s="1">
+        <v>100</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>6</v>
+      </c>
+      <c r="F5" s="1">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="1">
         <v>0</v>
       </c>
     </row>
@@ -697,7 +738,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -725,7 +766,7 @@
         <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>18</v>
@@ -739,7 +780,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2">
         <v>600</v>
@@ -761,7 +802,7 @@
       </c>
       <c r="H2" s="2"/>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J2" s="2">
         <v>1</v>
@@ -769,7 +810,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1">
         <v>100</v>
@@ -790,10 +831,10 @@
         <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="J3" s="1">
         <v>3</v>
@@ -801,7 +842,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -822,10 +863,10 @@
         <v>6</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -833,7 +874,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="1">
         <v>100</v>
@@ -854,10 +895,10 @@
         <v>10</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="J5" s="1">
         <v>3</v>
@@ -865,7 +906,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B6" s="1">
         <v>100</v>
@@ -886,10 +927,10 @@
         <v>9</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
         <v>22</v>
-      </c>
-      <c r="I6" t="s">
-        <v>27</v>
       </c>
       <c r="J6" s="1">
         <v>3</v>
@@ -897,7 +938,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B7" s="1">
         <v>100</v>
@@ -918,10 +959,10 @@
         <v>9</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J7" s="1">
         <v>3</v>
@@ -929,7 +970,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B8" s="1">
         <v>100</v>
@@ -950,10 +991,10 @@
         <v>9</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="J8" s="1">
         <v>3</v>
@@ -961,7 +1002,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B9" s="1">
         <v>100</v>
@@ -982,10 +1023,10 @@
         <v>9</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="J9" s="1">
         <v>3</v>
@@ -993,7 +1034,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B10" s="1">
         <v>100</v>
@@ -1014,10 +1055,10 @@
         <v>9</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I10" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="J10" s="1">
         <v>3</v>
@@ -1060,7 +1101,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1085,7 +1126,7 @@
         <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>18</v>
@@ -1096,7 +1137,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B2" s="1">
         <v>100</v>
@@ -1117,7 +1158,7 @@
         <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="I2" s="4">
         <v>0</v>
@@ -1125,7 +1166,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -1146,7 +1187,7 @@
         <v>8</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="I3" s="4">
         <v>0</v>
@@ -1154,7 +1195,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -1175,7 +1216,7 @@
         <v>12</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="I4" s="4">
         <v>0</v>
@@ -1183,7 +1224,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B5" s="1">
         <v>100</v>
@@ -1204,7 +1245,7 @@
         <v>11</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="I5" s="4">
         <v>0</v>
@@ -1212,7 +1253,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B6" s="1">
         <v>100</v>
@@ -1233,7 +1274,7 @@
         <v>11</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="I6" s="4">
         <v>0</v>
@@ -1241,7 +1282,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B7" s="1">
         <v>100</v>
@@ -1262,7 +1303,7 @@
         <v>11</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="I7" s="4">
         <v>0</v>
@@ -1270,7 +1311,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B8" s="1">
         <v>100</v>
@@ -1291,7 +1332,7 @@
         <v>11</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="I8" s="4">
         <v>0</v>
@@ -1299,7 +1340,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B9" s="1">
         <v>100</v>
@@ -1320,7 +1361,7 @@
         <v>11</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="I9" s="4">
         <v>0</v>
@@ -1333,10 +1374,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D80D6F1-0B4C-47A9-B2F3-7D1D6ADD19CC}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1381,6 +1422,14 @@
         <v>14</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/config/layout/screen2Elements.xlsx
+++ b/config/layout/screen2Elements.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Python\FinanceManager\config\layout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E315F099-566A-470B-A72F-88E517AA4790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1911C237-734E-4293-B29D-E8F65CBDA7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Buttons" sheetId="1" r:id="rId1"/>
     <sheet name="Labels" sheetId="2" r:id="rId2"/>
     <sheet name="TextBoxes" sheetId="5" r:id="rId3"/>
     <sheet name="Screen" sheetId="4" r:id="rId4"/>
+    <sheet name="Structures" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="68">
   <si>
     <t>id</t>
   </si>
@@ -55,9 +56,6 @@
     <t>mode</t>
   </si>
   <si>
-    <t>grid</t>
-  </si>
-  <si>
     <t>rows</t>
   </si>
   <si>
@@ -85,9 +83,6 @@
     <t>Add Investments</t>
   </si>
   <si>
-    <t>E</t>
-  </si>
-  <si>
     <t>Mutual Funds</t>
   </si>
   <si>
@@ -133,9 +128,6 @@
     <t>Year:</t>
   </si>
   <si>
-    <t>W</t>
-  </si>
-  <si>
     <t>lbAddInvestments2</t>
   </si>
   <si>
@@ -197,6 +189,45 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>center</t>
+  </si>
+  <si>
+    <t>space</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>structureId</t>
+  </si>
+  <si>
+    <t>structureType</t>
+  </si>
+  <si>
+    <t>structureStartX</t>
+  </si>
+  <si>
+    <t>structureEndX</t>
+  </si>
+  <si>
+    <t>structureStartY</t>
+  </si>
+  <si>
+    <t>structureEndY</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>LTP</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -253,10 +284,10 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -564,10 +595,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -579,7 +610,7 @@
     <col min="10" max="10" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -590,19 +621,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="I1" t="s">
         <v>3</v>
@@ -610,16 +641,19 @@
       <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2">
         <v>100</v>
       </c>
       <c r="C2" s="2">
-        <v>100</v>
+        <v>450</v>
       </c>
       <c r="D2" s="2">
         <v>14</v>
@@ -633,23 +667,28 @@
       <c r="G2" s="2">
         <v>3</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J2" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1">
-        <v>100</v>
-      </c>
-      <c r="C3" s="1">
-        <v>100</v>
+        <v>250</v>
+      </c>
+      <c r="C3" s="2">
+        <v>450</v>
       </c>
       <c r="D3" s="1">
         <v>14</v>
@@ -663,22 +702,28 @@
       <c r="G3" s="1">
         <v>5</v>
       </c>
+      <c r="H3" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1">
-        <v>100</v>
-      </c>
-      <c r="C4" s="1">
-        <v>100</v>
+        <v>400</v>
+      </c>
+      <c r="C4" s="2">
+        <v>450</v>
       </c>
       <c r="D4" s="1">
         <v>14</v>
@@ -692,22 +737,28 @@
       <c r="G4" s="1">
         <v>7</v>
       </c>
+      <c r="H4" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="1">
-        <v>100</v>
-      </c>
-      <c r="C5" s="1">
-        <v>100</v>
+        <v>52</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1100</v>
+      </c>
+      <c r="C5" s="2">
+        <v>70</v>
       </c>
       <c r="D5" s="1">
         <v>5</v>
@@ -721,10 +772,16 @@
       <c r="G5" s="1">
         <v>13</v>
       </c>
+      <c r="H5" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="I5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
         <v>0</v>
       </c>
     </row>
@@ -735,10 +792,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{150871EB-4912-4180-B17C-83A3764DC5B5}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -746,7 +803,7 @@
     <col min="9" max="9" width="16.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -757,19 +814,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="I1" t="s">
         <v>3</v>
@@ -777,16 +834,19 @@
       <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2">
         <v>600</v>
       </c>
       <c r="C2" s="2">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -800,17 +860,22 @@
       <c r="G2" s="2">
         <v>13</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K2" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1">
         <v>100</v>
@@ -830,22 +895,25 @@
       <c r="G3" s="1">
         <v>2</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>20</v>
+      <c r="H3" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="I3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J3" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B4">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="C4">
         <v>100</v>
@@ -862,22 +930,25 @@
       <c r="G4" s="1">
         <v>6</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>20</v>
+      <c r="H4" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="I4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B5" s="1">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="C5" s="1">
         <v>100</v>
@@ -894,25 +965,28 @@
       <c r="G5" s="1">
         <v>10</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>20</v>
+      <c r="H5" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B6" s="1">
         <v>100</v>
       </c>
       <c r="C6" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D6" s="1">
         <v>6</v>
@@ -926,25 +1000,28 @@
       <c r="G6" s="1">
         <v>9</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" t="s">
         <v>20</v>
       </c>
-      <c r="I6" t="s">
-        <v>22</v>
-      </c>
       <c r="J6" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1">
         <v>100</v>
       </c>
       <c r="C7" s="1">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="D7" s="1">
         <v>7</v>
@@ -958,25 +1035,28 @@
       <c r="G7" s="1">
         <v>9</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>20</v>
+      <c r="H7" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="I7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J7" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1">
         <v>100</v>
       </c>
       <c r="C8" s="1">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="D8" s="1">
         <v>8</v>
@@ -990,25 +1070,28 @@
       <c r="G8" s="1">
         <v>9</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>20</v>
+      <c r="H8" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="I8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J8" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B9" s="1">
         <v>100</v>
       </c>
       <c r="C9" s="1">
-        <v>100</v>
+        <v>320</v>
       </c>
       <c r="D9" s="1">
         <v>9</v>
@@ -1022,25 +1105,28 @@
       <c r="G9" s="1">
         <v>9</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>20</v>
+      <c r="H9" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="I9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J9" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B10" s="1">
         <v>100</v>
       </c>
       <c r="C10" s="1">
-        <v>100</v>
+        <v>360</v>
       </c>
       <c r="D10" s="1">
         <v>10</v>
@@ -1054,17 +1140,20 @@
       <c r="G10" s="1">
         <v>9</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>20</v>
+      <c r="H10" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="I10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J10" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1073,7 +1162,7 @@
       <c r="G11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1082,7 +1171,7 @@
       <c r="G12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1098,15 +1187,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECADEA84-B601-42D8-8290-2F9929C49681}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1117,30 +1206,33 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="C2" s="1">
         <v>100</v>
@@ -1158,20 +1250,23 @@
         <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B3">
-        <v>100</v>
-      </c>
-      <c r="C3">
+        <v>380</v>
+      </c>
+      <c r="C3" s="1">
         <v>100</v>
       </c>
       <c r="D3">
@@ -1187,20 +1282,23 @@
         <v>8</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B4">
-        <v>100</v>
-      </c>
-      <c r="C4">
+        <v>580</v>
+      </c>
+      <c r="C4" s="1">
         <v>100</v>
       </c>
       <c r="D4">
@@ -1216,21 +1314,24 @@
         <v>12</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B5" s="1">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C5" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D5" s="1">
         <v>6</v>
@@ -1245,21 +1346,24 @@
         <v>11</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B6" s="1">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C6" s="1">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="D6" s="1">
         <v>7</v>
@@ -1274,21 +1378,24 @@
         <v>11</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B7" s="1">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C7" s="1">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="D7" s="1">
         <v>8</v>
@@ -1303,21 +1410,24 @@
         <v>11</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B8" s="1">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C8" s="1">
-        <v>100</v>
+        <v>320</v>
       </c>
       <c r="D8" s="1">
         <v>9</v>
@@ -1332,21 +1442,24 @@
         <v>11</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B9" s="1">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C9" s="1">
-        <v>100</v>
+        <v>360</v>
       </c>
       <c r="D9" s="1">
         <v>10</v>
@@ -1361,11 +1474,17 @@
         <v>11</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1377,7 +1496,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1395,12 +1514,12 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>15</v>
@@ -1408,7 +1527,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>18</v>
@@ -1416,18 +1535,148 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
         <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{517F53EB-4245-4428-A900-D49D31EEC6A3}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
         <v>57</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1100</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>-1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>-1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>-1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
